--- a/SchedulingData/dynamic14/pso/scheduling2_2.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>236.9</v>
+        <v>225.92</v>
       </c>
       <c r="D2" t="n">
-        <v>285.3</v>
+        <v>300.92</v>
       </c>
       <c r="E2" t="n">
-        <v>12.12</v>
+        <v>13.068</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>258.3</v>
+        <v>233.4</v>
       </c>
       <c r="D3" t="n">
-        <v>317.1</v>
+        <v>302</v>
       </c>
       <c r="E3" t="n">
-        <v>12.98</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>204.22</v>
+        <v>300.92</v>
       </c>
       <c r="D4" t="n">
-        <v>258.22</v>
+        <v>351.42</v>
       </c>
       <c r="E4" t="n">
-        <v>15.208</v>
+        <v>9.148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>317.1</v>
+        <v>234.14</v>
       </c>
       <c r="D5" t="n">
-        <v>390.8</v>
+        <v>286.84</v>
       </c>
       <c r="E5" t="n">
-        <v>8.720000000000001</v>
+        <v>11.496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>285.3</v>
+        <v>286.84</v>
       </c>
       <c r="D6" t="n">
-        <v>340.8</v>
+        <v>338.18</v>
       </c>
       <c r="E6" t="n">
-        <v>7.7</v>
+        <v>7.492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>205.1</v>
+        <v>338.18</v>
       </c>
       <c r="D7" t="n">
-        <v>250.9</v>
+        <v>383.22</v>
       </c>
       <c r="E7" t="n">
-        <v>15.4</v>
+        <v>3.628</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>251.78</v>
+        <v>246.58</v>
       </c>
       <c r="D8" t="n">
-        <v>297.84</v>
+        <v>346.08</v>
       </c>
       <c r="E8" t="n">
-        <v>11.876</v>
+        <v>12.512</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>222.22</v>
+        <v>351.42</v>
       </c>
       <c r="D9" t="n">
-        <v>281.12</v>
+        <v>404.54</v>
       </c>
       <c r="E9" t="n">
-        <v>10.108</v>
+        <v>5.976</v>
       </c>
     </row>
     <row r="10">
@@ -618,98 +618,98 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>390.8</v>
+        <v>251.4</v>
       </c>
       <c r="D10" t="n">
-        <v>441.68</v>
+        <v>316.38</v>
       </c>
       <c r="E10" t="n">
-        <v>5.772</v>
+        <v>11.012</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>258.22</v>
+        <v>302</v>
       </c>
       <c r="D11" t="n">
-        <v>303.64</v>
+        <v>350.14</v>
       </c>
       <c r="E11" t="n">
-        <v>12.296</v>
+        <v>7.756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>297.84</v>
+        <v>346.08</v>
       </c>
       <c r="D12" t="n">
-        <v>352.3</v>
+        <v>412.26</v>
       </c>
       <c r="E12" t="n">
-        <v>9.06</v>
+        <v>8.984</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>352.3</v>
+        <v>350.14</v>
       </c>
       <c r="D13" t="n">
-        <v>408.44</v>
+        <v>417.54</v>
       </c>
       <c r="E13" t="n">
-        <v>5.576</v>
+        <v>4.116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>441.68</v>
+        <v>412.26</v>
       </c>
       <c r="D14" t="n">
-        <v>504.82</v>
+        <v>468.5</v>
       </c>
       <c r="E14" t="n">
-        <v>3.068</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>340.8</v>
+        <v>208.86</v>
       </c>
       <c r="D15" t="n">
-        <v>400.56</v>
+        <v>243.92</v>
       </c>
       <c r="E15" t="n">
-        <v>5.324</v>
+        <v>17.128</v>
       </c>
     </row>
     <row r="16">
@@ -732,93 +732,93 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>303.64</v>
+        <v>383.22</v>
       </c>
       <c r="D16" t="n">
-        <v>378.64</v>
+        <v>444.36</v>
       </c>
       <c r="E16" t="n">
-        <v>7.916</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>250.9</v>
+        <v>444.36</v>
       </c>
       <c r="D17" t="n">
-        <v>305.74</v>
+        <v>530.87</v>
       </c>
       <c r="E17" t="n">
-        <v>11.536</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>305.74</v>
+        <v>530.87</v>
       </c>
       <c r="D18" t="n">
-        <v>358.66</v>
+        <v>605.79</v>
       </c>
       <c r="E18" t="n">
-        <v>8.364000000000001</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>408.44</v>
+        <v>316.38</v>
       </c>
       <c r="D19" t="n">
-        <v>459.3</v>
+        <v>389.42</v>
       </c>
       <c r="E19" t="n">
-        <v>2.6</v>
+        <v>8.308</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>378.64</v>
+        <v>243.92</v>
       </c>
       <c r="D20" t="n">
-        <v>429.98</v>
+        <v>292.44</v>
       </c>
       <c r="E20" t="n">
-        <v>3.912</v>
+        <v>13.916</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>459.3</v>
+        <v>292.44</v>
       </c>
       <c r="D21" t="n">
-        <v>550.6</v>
+        <v>343.2</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="22">
@@ -846,174 +846,174 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>550.6</v>
+        <v>343.2</v>
       </c>
       <c r="D22" t="n">
-        <v>616.9400000000001</v>
+        <v>399.26</v>
       </c>
       <c r="E22" t="n">
-        <v>26.516</v>
+        <v>7.484</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>504.82</v>
+        <v>399.26</v>
       </c>
       <c r="D23" t="n">
-        <v>575.7</v>
+        <v>440.04</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5600000000000001</v>
+        <v>4.536</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>575.7</v>
+        <v>417.54</v>
       </c>
       <c r="D24" t="n">
-        <v>651.48</v>
+        <v>464.98</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>358.66</v>
+        <v>464.98</v>
       </c>
       <c r="D25" t="n">
-        <v>418.46</v>
+        <v>554.5</v>
       </c>
       <c r="E25" t="n">
-        <v>5.964</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>281.12</v>
+        <v>404.54</v>
       </c>
       <c r="D26" t="n">
-        <v>352.42</v>
+        <v>463.44</v>
       </c>
       <c r="E26" t="n">
-        <v>6.088</v>
+        <v>1.216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>400.56</v>
+        <v>463.44</v>
       </c>
       <c r="D27" t="n">
-        <v>467.14</v>
+        <v>542.8099999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>1.796</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>467.14</v>
+        <v>542.8099999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>560.05</v>
+        <v>603.53</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>418.46</v>
+        <v>554.5</v>
       </c>
       <c r="D29" t="n">
-        <v>480.96</v>
+        <v>623.98</v>
       </c>
       <c r="E29" t="n">
-        <v>3.324</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>352.42</v>
+        <v>440.04</v>
       </c>
       <c r="D30" t="n">
-        <v>395.84</v>
+        <v>506.54</v>
       </c>
       <c r="E30" t="n">
-        <v>2.876</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>395.84</v>
+        <v>506.54</v>
       </c>
       <c r="D31" t="n">
-        <v>486.49</v>
+        <v>597.01</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
@@ -1032,21 +1032,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>486.49</v>
+        <v>605.79</v>
       </c>
       <c r="D32" t="n">
-        <v>560.75</v>
+        <v>644.45</v>
       </c>
       <c r="E32" t="n">
-        <v>26.724</v>
+        <v>22.952</v>
       </c>
     </row>
     <row r="33">
@@ -1055,36 +1055,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>651.48</v>
+        <v>389.42</v>
       </c>
       <c r="D33" t="n">
-        <v>733.6799999999999</v>
+        <v>423.22</v>
       </c>
       <c r="E33" t="n">
-        <v>26.92</v>
+        <v>6.068</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>480.96</v>
+        <v>623.98</v>
       </c>
       <c r="D34" t="n">
-        <v>539.2</v>
+        <v>679.96</v>
       </c>
       <c r="E34" t="n">
-        <v>0.62</v>
+        <v>24.684</v>
       </c>
     </row>
     <row r="35">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>539.2</v>
+        <v>603.53</v>
       </c>
       <c r="D35" t="n">
-        <v>614.76</v>
+        <v>644.61</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>24.12</v>
       </c>
     </row>
     <row r="36">
@@ -1112,74 +1112,74 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>614.76</v>
+        <v>644.61</v>
       </c>
       <c r="D36" t="n">
-        <v>679.24</v>
+        <v>689.91</v>
       </c>
       <c r="E36" t="n">
-        <v>27.192</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>429.98</v>
+        <v>597.01</v>
       </c>
       <c r="D37" t="n">
-        <v>483.02</v>
+        <v>653.5700000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>1.208</v>
+        <v>27.024</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>483.02</v>
+        <v>423.22</v>
       </c>
       <c r="D38" t="n">
-        <v>581.9</v>
+        <v>465.32</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>2.988</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>560.75</v>
+        <v>644.45</v>
       </c>
       <c r="D39" t="n">
-        <v>625.17</v>
+        <v>702.79</v>
       </c>
       <c r="E39" t="n">
-        <v>22.412</v>
+        <v>20.248</v>
       </c>
     </row>
     <row r="40">
@@ -1192,32 +1192,32 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>733.6799999999999</v>
+        <v>465.32</v>
       </c>
       <c r="D40" t="n">
-        <v>793.84</v>
+        <v>525.48</v>
       </c>
       <c r="E40" t="n">
-        <v>24.544</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>625.17</v>
+        <v>525.48</v>
       </c>
       <c r="D41" t="n">
-        <v>660.67</v>
+        <v>630.66</v>
       </c>
       <c r="E41" t="n">
-        <v>19.992</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>560.05</v>
+        <v>468.5</v>
       </c>
       <c r="D42" t="n">
-        <v>619.11</v>
+        <v>538.02</v>
       </c>
       <c r="E42" t="n">
-        <v>27.264</v>
+        <v>1.188</v>
       </c>
     </row>
     <row r="43">
@@ -1245,55 +1245,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>619.11</v>
+        <v>538.02</v>
       </c>
       <c r="D43" t="n">
-        <v>691.17</v>
+        <v>637.14</v>
       </c>
       <c r="E43" t="n">
-        <v>24.668</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>581.9</v>
+        <v>630.66</v>
       </c>
       <c r="D44" t="n">
-        <v>626.1</v>
+        <v>695.96</v>
       </c>
       <c r="E44" t="n">
-        <v>26.28</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>2</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>pond28</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>626.1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>681.78</v>
-      </c>
-      <c r="E45" t="n">
-        <v>23.312</v>
+        <v>27.6</v>
       </c>
     </row>
   </sheetData>
